--- a/config_debug/fish_face_config.xlsx
+++ b/config_debug/fish_face_config.xlsx
@@ -64,38 +64,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>你也太狠了吧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要这么对我嘛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>哼,都欺负我</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>别惹我,我可是会爆炸的!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>让开,让开,炸弹可是不长眼的!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>听说打BOSS鱼会掉高级彩贝哦~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的发型帅吗?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用锁定可以提高捕获的几率哦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>|</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -120,40 +88,56 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>团结就是力量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>小牛角</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>使用冰冻可以防止鱼类逃跑哦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿云弹可以进行穿透，最后还会进行大爆炸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用电磁炮捕获更多的鱼吧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击炮可以获得双倍奖励哦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值可以获得特殊炮台，拥有特殊的技能哦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获BOSS鱼可以进入海怪榜，获得奖励哦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获彩金鱼,可以进行彩金抽奖哦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>"捕获彩金鱼,可以进行彩金抽奖哦"</t>
+  </si>
+  <si>
+    <t>"我的发型帅吗?"</t>
+  </si>
+  <si>
+    <t>"听说打BOSS鱼会掉高级彩贝哦~"</t>
+  </si>
+  <si>
+    <t>"你也太狠了吧"</t>
+  </si>
+  <si>
+    <t>"别惹我,我可是会爆炸的!"</t>
+  </si>
+  <si>
+    <t>"让开,让开,炸弹可是不长眼的!"</t>
+  </si>
+  <si>
+    <t>"捕获BOSS鱼可以进入海怪榜，获得奖励哦"</t>
+  </si>
+  <si>
+    <t>"不要这么对我嘛"</t>
+  </si>
+  <si>
+    <t>"哼,都欺负我"</t>
+  </si>
+  <si>
+    <t>"使用锁定可以提高捕获的几率哦"</t>
+  </si>
+  <si>
+    <t>"使用冰冻可以防止鱼类逃跑哦"</t>
+  </si>
+  <si>
+    <t>"团结就是力量"</t>
+  </si>
+  <si>
+    <t>"穿云弹可以进行穿透，最后还会进行大爆炸"</t>
+  </si>
+  <si>
+    <t>"使用电磁炮捕获更多的鱼吧"</t>
+  </si>
+  <si>
+    <t>"强击炮可以获得双倍奖励哦"</t>
+  </si>
+  <si>
+    <t>"充值可以获得特殊炮台，拥有特殊的技能哦"</t>
   </si>
 </sst>
 </file>
@@ -559,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -663,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -688,10 +672,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -716,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -741,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -766,10 +750,10 @@
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -794,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -822,10 +806,10 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -850,10 +834,10 @@
         <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -878,7 +862,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -903,7 +887,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -928,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -953,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -981,7 +965,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1006,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1031,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -1056,7 +1040,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -1088,7 +1072,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -1300,6 +1284,39 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish_face_config.xlsx
+++ b/config_debug/fish_face_config.xlsx
@@ -92,52 +92,53 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"捕获彩金鱼,可以进行彩金抽奖哦"</t>
-  </si>
-  <si>
-    <t>"我的发型帅吗?"</t>
-  </si>
-  <si>
-    <t>"听说打BOSS鱼会掉高级彩贝哦~"</t>
-  </si>
-  <si>
-    <t>"你也太狠了吧"</t>
-  </si>
-  <si>
-    <t>"别惹我,我可是会爆炸的!"</t>
-  </si>
-  <si>
-    <t>"让开,让开,炸弹可是不长眼的!"</t>
-  </si>
-  <si>
-    <t>"捕获BOSS鱼可以进入海怪榜，获得奖励哦"</t>
-  </si>
-  <si>
-    <t>"不要这么对我嘛"</t>
-  </si>
-  <si>
-    <t>"哼,都欺负我"</t>
-  </si>
-  <si>
-    <t>"使用锁定可以提高捕获的几率哦"</t>
-  </si>
-  <si>
-    <t>"使用冰冻可以防止鱼类逃跑哦"</t>
-  </si>
-  <si>
-    <t>"团结就是力量"</t>
-  </si>
-  <si>
-    <t>"穿云弹可以进行穿透，最后还会进行大爆炸"</t>
-  </si>
-  <si>
-    <t>"使用电磁炮捕获更多的鱼吧"</t>
-  </si>
-  <si>
-    <t>"强击炮可以获得双倍奖励哦"</t>
-  </si>
-  <si>
-    <t>"充值可以获得特殊炮台，拥有特殊的技能哦"</t>
+    <t>捕获彩金鱼，可以进行彩金抽奖哦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的发型帅吗?</t>
+  </si>
+  <si>
+    <t>听说打BOSS鱼会掉高级彩贝哦~</t>
+  </si>
+  <si>
+    <t>你也太狠了吧</t>
+  </si>
+  <si>
+    <t>别惹我，我可是会爆炸的!</t>
+  </si>
+  <si>
+    <t>让开，让开，炸弹可是不长眼的!</t>
+  </si>
+  <si>
+    <t>捕获BOSS鱼可以进入海怪榜，获得奖励哦</t>
+  </si>
+  <si>
+    <t>不要这么对我嘛</t>
+  </si>
+  <si>
+    <t>哼，都欺负我</t>
+  </si>
+  <si>
+    <t>使用锁定可以提高捕获的几率哦</t>
+  </si>
+  <si>
+    <t>使用冰冻可以防止鱼类逃跑哦</t>
+  </si>
+  <si>
+    <t>团结就是力量</t>
+  </si>
+  <si>
+    <t>穿云弹可以进行穿透，最后还会进行大爆炸</t>
+  </si>
+  <si>
+    <t>使用电磁炮捕获更多的鱼吧</t>
+  </si>
+  <si>
+    <t>强击炮可以获得双倍奖励哦</t>
+  </si>
+  <si>
+    <t>充值可以获得特殊炮台，拥有特殊的技能哦</t>
   </si>
 </sst>
 </file>
@@ -547,7 +548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H21" sqref="H21:H44"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_face_config.xlsx
+++ b/config_debug/fish_face_config.xlsx
@@ -95,49 +95,57 @@
     <t>我的发型帅吗?</t>
   </si>
   <si>
+    <t>你也太狠了吧</t>
+  </si>
+  <si>
+    <t>别惹我，我可是会爆炸的!</t>
+  </si>
+  <si>
+    <t>不要这么对我嘛</t>
+  </si>
+  <si>
+    <t>哼，都欺负我</t>
+  </si>
+  <si>
+    <t>使用电磁炮捕获更多的鱼吧</t>
+  </si>
+  <si>
+    <t>强击炮可以获得双倍奖励哦</t>
+  </si>
+  <si>
+    <t>id|ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>让开，让开，炸弹可是不长眼的!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定提高捕获概率哦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻防止鱼类逃跑哦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云弹可以进行穿透，最后还会大爆炸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值获得特殊炮台，拥有特殊技能把</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获BOSS鱼可进入海怪排行榜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>听说打BOSS鱼会掉高级彩贝哦~</t>
-  </si>
-  <si>
-    <t>你也太狠了吧</t>
-  </si>
-  <si>
-    <t>别惹我，我可是会爆炸的!</t>
-  </si>
-  <si>
-    <t>让开，让开，炸弹可是不长眼的!</t>
-  </si>
-  <si>
-    <t>捕获BOSS鱼可以进入海怪榜，获得奖励哦</t>
-  </si>
-  <si>
-    <t>不要这么对我嘛</t>
-  </si>
-  <si>
-    <t>哼，都欺负我</t>
-  </si>
-  <si>
-    <t>使用锁定可以提高捕获的几率哦</t>
-  </si>
-  <si>
-    <t>使用冰冻可以防止鱼类逃跑哦</t>
-  </si>
-  <si>
-    <t>团结就是力量</t>
-  </si>
-  <si>
-    <t>穿云弹可以进行穿透，最后还会进行大爆炸</t>
-  </si>
-  <si>
-    <t>使用电磁炮捕获更多的鱼吧</t>
-  </si>
-  <si>
-    <t>强击炮可以获得双倍奖励哦</t>
-  </si>
-  <si>
-    <t>充值可以获得特殊炮台，拥有特殊的技能哦</t>
-  </si>
-  <si>
-    <t>id|ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -707,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -761,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>12</v>
@@ -791,7 +799,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -821,7 +829,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -851,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -881,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -908,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -935,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -962,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
@@ -992,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1019,7 +1027,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1046,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -1073,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">

--- a/config_debug/fish_face_config.xlsx
+++ b/config_debug/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>金牛送福，财源滚滚！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有本事打倒我，送你金元宝！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛气冲天，大吉大利！</t>
+    <t>打到我得星星，换奖品！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿运当头，星途璀璨！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星送福，财源广进！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I27" sqref="I27"/>
+      <selection pane="topRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_face_config.xlsx
+++ b/config_debug/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>年兽祈福，财运亨通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换礼，招财进宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金玉满堂，八方来财</t>
+    <t>招财进宝，八方来财!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打倒我有丰厚奖励哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财源滚滚，大吉大利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,10 +238,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -265,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,8 +336,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -578,7 +623,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I21" sqref="I21"/>
+      <selection pane="topRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1129,11 +1174,11 @@
       <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1160,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/config_debug/fish_face_config.xlsx
+++ b/config_debug/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,7 +149,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>打倒我有惊喜奖励哦～</t>
+    <t>捕获我有丰厚奖励哦！</t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
